--- a/fgt-tables/fgt_localizacao_domicio_rm.xlsx
+++ b/fgt-tables/fgt_localizacao_domicio_rm.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.2338887507373775</v>
+        <v>0.1971722498084585</v>
       </c>
       <c r="C2">
-        <v>0.001926145550644075</v>
+        <v>0.001640823957704524</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.4509462964855943</v>
+        <v>0.3870545671486926</v>
       </c>
       <c r="C3">
-        <v>0.00279164532295273</v>
+        <v>0.002521359895798399</v>
       </c>
     </row>
   </sheetData>
